--- a/data/case1/5/Q_device_3.xlsx
+++ b/data/case1/5/Q_device_3.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.03718685565208104</v>
+        <v>0.038889402114658814</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.037186855678675079</v>
+        <v>-0.038889402144032012</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.036768688388080124</v>
+        <v>0.0065005019915595061</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.036768688406427781</v>
+        <v>-0.0065005020338793369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.048278815484593965</v>
+        <v>-0.062578075209440323</v>
       </c>
       <c r="B3" s="0">
-        <v>0.048278815452788303</v>
+        <v>0.062578075175741293</v>
       </c>
     </row>
     <row r="4">
